--- a/output/ejecucion_2/gridsearch_results/base_19_21/base_19_21_results_gs_xgb_nrs.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_19_21/base_19_21_results_gs_xgb_nrs.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.564215326309204</v>
+        <v>9.061163234710694</v>
       </c>
       <c r="C2">
-        <v>0.03137712574762237</v>
+        <v>0.1393735505550045</v>
       </c>
       <c r="D2">
-        <v>0.05096421241760254</v>
+        <v>0.07549042701721191</v>
       </c>
       <c r="E2">
-        <v>0.003605334660557845</v>
+        <v>0.004830942023359848</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.59181480407715</v>
+        <v>17.43317995071411</v>
       </c>
       <c r="C3">
-        <v>0.3532459958154842</v>
+        <v>0.1780355904278662</v>
       </c>
       <c r="D3">
-        <v>0.07133979797363281</v>
+        <v>0.08568682670593261</v>
       </c>
       <c r="E3">
-        <v>0.01784969079686526</v>
+        <v>0.003829239196033592</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.26150183677673</v>
+        <v>34.25860729217529</v>
       </c>
       <c r="C4">
-        <v>0.09592402599289941</v>
+        <v>0.4095716273498036</v>
       </c>
       <c r="D4">
-        <v>0.08215394020080566</v>
+        <v>0.09747767448425293</v>
       </c>
       <c r="E4">
-        <v>0.02803975711129738</v>
+        <v>0.0024555447531169</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.832067537307739</v>
+        <v>8.794546318054199</v>
       </c>
       <c r="C5">
-        <v>0.3412885549997848</v>
+        <v>0.2559765267129195</v>
       </c>
       <c r="D5">
-        <v>0.04782109260559082</v>
+        <v>0.07808904647827149</v>
       </c>
       <c r="E5">
-        <v>0.002909878004016496</v>
+        <v>0.003078367996031485</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.32545056343079</v>
+        <v>17.40894193649292</v>
       </c>
       <c r="C6">
-        <v>0.3784797091562915</v>
+        <v>0.2662391650187203</v>
       </c>
       <c r="D6">
-        <v>0.05421190261840821</v>
+        <v>0.08252730369567871</v>
       </c>
       <c r="E6">
-        <v>0.002855641252234122</v>
+        <v>0.002477121997970412</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.551411485672</v>
+        <v>34.41398730278015</v>
       </c>
       <c r="C7">
-        <v>0.1591649910497538</v>
+        <v>0.342177834921762</v>
       </c>
       <c r="D7">
-        <v>0.06091494560241699</v>
+        <v>0.09567956924438477</v>
       </c>
       <c r="E7">
-        <v>0.003558021189751296</v>
+        <v>0.004261497661571218</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.136449098587036</v>
+        <v>8.763357210159302</v>
       </c>
       <c r="C8">
-        <v>0.4709776189453362</v>
+        <v>0.2228264275674981</v>
       </c>
       <c r="D8">
-        <v>0.05211801528930664</v>
+        <v>0.07794427871704102</v>
       </c>
       <c r="E8">
-        <v>0.005405381032319679</v>
+        <v>0.001093215643964374</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.74837093353272</v>
+        <v>17.33513612747192</v>
       </c>
       <c r="C9">
-        <v>0.242200530746472</v>
+        <v>0.1943219396137024</v>
       </c>
       <c r="D9">
-        <v>0.05200996398925781</v>
+        <v>0.08340253829956054</v>
       </c>
       <c r="E9">
-        <v>0.001232521032532752</v>
+        <v>0.002638680704780795</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.31819262504577</v>
+        <v>34.46171503067016</v>
       </c>
       <c r="C10">
-        <v>0.341414990071878</v>
+        <v>0.3293366920003855</v>
       </c>
       <c r="D10">
-        <v>0.06017084121704101</v>
+        <v>0.09723820686340331</v>
       </c>
       <c r="E10">
-        <v>0.001202973713455328</v>
+        <v>0.0007876835706987207</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.135627698898315</v>
+        <v>13.77053198814392</v>
       </c>
       <c r="C11">
-        <v>0.3643453900413568</v>
+        <v>0.1378719181127048</v>
       </c>
       <c r="D11">
-        <v>0.05394701957702637</v>
+        <v>0.08128657341003417</v>
       </c>
       <c r="E11">
-        <v>0.002086409583590035</v>
+        <v>0.0009664598714705841</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.04186606407166</v>
+        <v>26.98769288063049</v>
       </c>
       <c r="C12">
-        <v>0.07233153127989536</v>
+        <v>0.4756939701878368</v>
       </c>
       <c r="D12">
-        <v>0.05768513679504395</v>
+        <v>0.08705649375915528</v>
       </c>
       <c r="E12">
-        <v>0.001290382785913438</v>
+        <v>0.01198909152923116</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.03500823974609</v>
+        <v>53.87070484161377</v>
       </c>
       <c r="C13">
-        <v>0.1553965299345228</v>
+        <v>0.6879016040292724</v>
       </c>
       <c r="D13">
-        <v>0.08100595474243164</v>
+        <v>0.1120619297027588</v>
       </c>
       <c r="E13">
-        <v>0.01402452331086566</v>
+        <v>0.002555593370355226</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.225236272811889</v>
+        <v>13.65166459083557</v>
       </c>
       <c r="C14">
-        <v>0.3464916651315607</v>
+        <v>0.2381299800630965</v>
       </c>
       <c r="D14">
-        <v>0.05695414543151855</v>
+        <v>0.08357648849487305</v>
       </c>
       <c r="E14">
-        <v>0.007815522353128811</v>
+        <v>0.00388728125733377</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.12160716056824</v>
+        <v>27.46673254966736</v>
       </c>
       <c r="C15">
-        <v>0.0484944937448461</v>
+        <v>0.3858223531070961</v>
       </c>
       <c r="D15">
-        <v>0.05848283767700195</v>
+        <v>0.09177055358886718</v>
       </c>
       <c r="E15">
-        <v>0.0007793051430092115</v>
+        <v>0.003167569249475252</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35.9566502571106</v>
+        <v>53.90946950912475</v>
       </c>
       <c r="C16">
-        <v>0.3217376046210615</v>
+        <v>0.5084347558537639</v>
       </c>
       <c r="D16">
-        <v>0.07766289710998535</v>
+        <v>0.1191765308380127</v>
       </c>
       <c r="E16">
-        <v>0.01668746649569277</v>
+        <v>0.01252294629381155</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.268593978881835</v>
+        <v>14.11239848136902</v>
       </c>
       <c r="C17">
-        <v>0.3009492303124449</v>
+        <v>0.3522187948964264</v>
       </c>
       <c r="D17">
-        <v>0.06175427436828614</v>
+        <v>0.08049492835998535</v>
       </c>
       <c r="E17">
-        <v>0.01817373311572157</v>
+        <v>0.0009282624537136751</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.05419111251831</v>
+        <v>26.99771661758423</v>
       </c>
       <c r="C18">
-        <v>0.3121487488067771</v>
+        <v>0.4778507657976366</v>
       </c>
       <c r="D18">
-        <v>0.05617127418518066</v>
+        <v>0.09166922569274902</v>
       </c>
       <c r="E18">
-        <v>0.004433117599448025</v>
+        <v>0.005774439541688691</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.00505700111389</v>
+        <v>48.87326364517212</v>
       </c>
       <c r="C19">
-        <v>1.178080591398091</v>
+        <v>1.062407012423864</v>
       </c>
       <c r="D19">
-        <v>0.04984631538391113</v>
+        <v>0.08923244476318359</v>
       </c>
       <c r="E19">
-        <v>0.01178045578457311</v>
+        <v>0.01774808296599408</v>
       </c>
       <c r="F19">
         <v>2</v>
